--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panta\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\veterinaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE6553C-E7B9-4138-9DD6-6D2360C5B1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A8931E-237E-466C-8D14-44471C8B1B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>dias</t>
   </si>
@@ -70,15 +70,6 @@
     <t>crear ver</t>
   </si>
   <si>
-    <t>fecha entrega</t>
-  </si>
-  <si>
-    <t>arturo</t>
-  </si>
-  <si>
-    <t>matias</t>
-  </si>
-  <si>
     <t>cracion de github</t>
   </si>
   <si>
@@ -97,10 +88,22 @@
     <t>creacion crop de imagen</t>
   </si>
   <si>
-    <t>fin de semana</t>
-  </si>
-  <si>
     <t>creacion carta gantt</t>
+  </si>
+  <si>
+    <t>Fin de semana:</t>
+  </si>
+  <si>
+    <t>Fecha entrega:</t>
+  </si>
+  <si>
+    <t>Matias</t>
+  </si>
+  <si>
+    <t>Arturo</t>
+  </si>
+  <si>
+    <t>Ambos</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,8 +169,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -175,24 +196,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,493 +516,860 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE22"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="AH26" sqref="AH26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="3.109375" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" customWidth="1"/>
-    <col min="4" max="6" width="4.44140625" customWidth="1"/>
-    <col min="7" max="7" width="3.44140625" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.5546875" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="3.109375" customWidth="1"/>
-    <col min="12" max="12" width="3.88671875" customWidth="1"/>
-    <col min="13" max="13" width="3.109375" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" customWidth="1"/>
-    <col min="15" max="15" width="3.6640625" customWidth="1"/>
-    <col min="16" max="16" width="3.5546875" customWidth="1"/>
-    <col min="17" max="17" width="3.44140625" customWidth="1"/>
-    <col min="18" max="19" width="3.33203125" customWidth="1"/>
-    <col min="20" max="20" width="3.109375" customWidth="1"/>
-    <col min="21" max="21" width="2.44140625" customWidth="1"/>
-    <col min="22" max="22" width="3.44140625" customWidth="1"/>
-    <col min="23" max="23" width="2.44140625" customWidth="1"/>
-    <col min="24" max="24" width="2.5546875" customWidth="1"/>
-    <col min="25" max="26" width="3.33203125" customWidth="1"/>
-    <col min="27" max="27" width="4.109375" customWidth="1"/>
-    <col min="28" max="28" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="5" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" customWidth="1"/>
+    <col min="13" max="13" width="3.140625" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" customWidth="1"/>
+    <col min="16" max="16" width="3.5703125" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" customWidth="1"/>
+    <col min="18" max="19" width="3.28515625" customWidth="1"/>
+    <col min="20" max="20" width="3.140625" customWidth="1"/>
+    <col min="21" max="21" width="2.42578125" customWidth="1"/>
+    <col min="22" max="22" width="3.42578125" customWidth="1"/>
+    <col min="23" max="23" width="2.42578125" customWidth="1"/>
+    <col min="24" max="24" width="2.5703125" customWidth="1"/>
+    <col min="25" max="26" width="3.28515625" customWidth="1"/>
+    <col min="27" max="27" width="4.140625" customWidth="1"/>
+    <col min="28" max="28" width="3.42578125" customWidth="1"/>
     <col min="29" max="30" width="3" customWidth="1"/>
-    <col min="31" max="31" width="3.44140625" customWidth="1"/>
-    <col min="32" max="32" width="5.44140625" customWidth="1"/>
+    <col min="31" max="31" width="3.42578125" customWidth="1"/>
+    <col min="32" max="34" width="1.140625" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" customWidth="1"/>
+    <col min="36" max="36" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="13">
         <v>16</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="13">
         <v>17</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="13">
         <v>18</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="13">
         <v>19</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="13">
         <v>20</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="13">
         <v>21</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="13">
         <v>22</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="13">
         <v>23</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="13">
         <v>24</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="13">
         <v>25</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="13">
         <v>26</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="13">
         <v>27</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="13">
         <v>28</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="13">
         <v>29</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="13">
         <v>30</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="13">
         <v>1</v>
       </c>
-      <c r="R1" s="6">
+      <c r="R1" s="13">
         <v>2</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1" s="13">
         <v>3</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="13">
         <v>4</v>
       </c>
-      <c r="U1" s="6">
+      <c r="U1" s="13">
         <v>5</v>
       </c>
-      <c r="V1" s="6">
+      <c r="V1" s="13">
         <v>6</v>
       </c>
-      <c r="W1" s="6">
+      <c r="W1" s="13">
         <v>7</v>
       </c>
-      <c r="X1" s="6">
+      <c r="X1" s="13">
         <v>8</v>
       </c>
-      <c r="Y1" s="6">
+      <c r="Y1" s="13">
         <v>9</v>
       </c>
-      <c r="Z1" s="6">
+      <c r="Z1" s="13">
         <v>10</v>
       </c>
-      <c r="AA1" s="6">
+      <c r="AA1" s="13">
         <v>11</v>
       </c>
-      <c r="AB1" s="6">
+      <c r="AB1" s="13">
         <v>12</v>
       </c>
-      <c r="AC1" s="6">
+      <c r="AC1" s="13">
         <v>13</v>
       </c>
-      <c r="AD1" s="6">
+      <c r="AD1" s="13">
         <v>14</v>
       </c>
-      <c r="AE1" s="6">
+      <c r="AE1" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="10"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="10"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="10"/>
+      <c r="AI4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ4" s="5"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="10"/>
+      <c r="AI5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ5" s="1"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="10"/>
+      <c r="AI6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ6" s="4"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="10"/>
+      <c r="AI7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="10"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="J2" s="3"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AE2" s="1"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AE3" s="1"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AE4" s="1"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="3"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="H6" s="9"/>
-      <c r="J6" s="3"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AE6" s="1"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="3"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="AJ7" s="3"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="3"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AE8" s="1"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="10"/>
+      <c r="AI8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ8" s="19"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="J9" s="3"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AE9" s="1"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="10"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="3"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AE10" s="1"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="10"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="3"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AE11" s="1"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="10"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="3"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AE12" s="1"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="10"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="3"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AE13" s="1"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="10"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="3"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AE14" s="1"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="10"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="3"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AE15" s="1"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="10"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="10"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="10"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="10"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="3"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AE16" s="1"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="10"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="3"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="9"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AE17" s="1"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="10"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="J18" s="3"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AE18" s="1"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="J19" s="3"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="10"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AE19" s="1"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="J20" s="3"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AE20" s="1"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="J21" s="3"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AE21" s="1"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -969,42 +1379,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1217F2FF-2A49-4476-A0E8-BA91ACAF7C7F}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="10"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="9"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\veterinaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A8931E-237E-466C-8D14-44471C8B1B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F5A6AE-9E80-4952-96BD-C9C79B07FAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,860 +516,861 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="E2:AN22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH26" sqref="AH26"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" customWidth="1"/>
-    <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" customWidth="1"/>
-    <col min="13" max="13" width="3.140625" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" customWidth="1"/>
-    <col min="16" max="16" width="3.5703125" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" customWidth="1"/>
-    <col min="18" max="19" width="3.28515625" customWidth="1"/>
-    <col min="20" max="20" width="3.140625" customWidth="1"/>
-    <col min="21" max="21" width="2.42578125" customWidth="1"/>
-    <col min="22" max="22" width="3.42578125" customWidth="1"/>
-    <col min="23" max="23" width="2.42578125" customWidth="1"/>
-    <col min="24" max="24" width="2.5703125" customWidth="1"/>
-    <col min="25" max="26" width="3.28515625" customWidth="1"/>
-    <col min="27" max="27" width="4.140625" customWidth="1"/>
-    <col min="28" max="28" width="3.42578125" customWidth="1"/>
-    <col min="29" max="30" width="3" customWidth="1"/>
-    <col min="31" max="31" width="3.42578125" customWidth="1"/>
-    <col min="32" max="34" width="1.140625" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" customWidth="1"/>
-    <col min="36" max="36" width="3.7109375" customWidth="1"/>
+    <col min="3" max="4" width="1.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="9" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
+    <col min="13" max="13" width="3.5703125" customWidth="1"/>
+    <col min="14" max="14" width="4.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="3.140625" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" customWidth="1"/>
+    <col min="17" max="17" width="3.140625" customWidth="1"/>
+    <col min="18" max="18" width="3.5703125" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" customWidth="1"/>
+    <col min="20" max="20" width="3.5703125" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" customWidth="1"/>
+    <col min="22" max="23" width="3.28515625" customWidth="1"/>
+    <col min="24" max="24" width="3.140625" customWidth="1"/>
+    <col min="25" max="25" width="2.42578125" customWidth="1"/>
+    <col min="26" max="26" width="3.42578125" customWidth="1"/>
+    <col min="27" max="27" width="2.42578125" customWidth="1"/>
+    <col min="28" max="28" width="2.5703125" customWidth="1"/>
+    <col min="29" max="30" width="3.28515625" customWidth="1"/>
+    <col min="31" max="31" width="4.140625" customWidth="1"/>
+    <col min="32" max="32" width="3.42578125" customWidth="1"/>
+    <col min="33" max="34" width="3" customWidth="1"/>
+    <col min="35" max="35" width="3.42578125" customWidth="1"/>
+    <col min="36" max="38" width="1.140625" customWidth="1"/>
+    <col min="39" max="39" width="15.42578125" customWidth="1"/>
+    <col min="40" max="40" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="2" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13">
+      <c r="F2" s="13">
         <v>16</v>
       </c>
-      <c r="C1" s="13">
+      <c r="G2" s="13">
         <v>17</v>
       </c>
-      <c r="D1" s="13">
+      <c r="H2" s="13">
         <v>18</v>
       </c>
-      <c r="E1" s="13">
+      <c r="I2" s="13">
         <v>19</v>
       </c>
-      <c r="F1" s="13">
+      <c r="J2" s="13">
         <v>20</v>
       </c>
-      <c r="G1" s="13">
+      <c r="K2" s="13">
         <v>21</v>
       </c>
-      <c r="H1" s="13">
+      <c r="L2" s="13">
         <v>22</v>
       </c>
-      <c r="I1" s="13">
+      <c r="M2" s="13">
         <v>23</v>
       </c>
-      <c r="J1" s="13">
+      <c r="N2" s="13">
         <v>24</v>
       </c>
-      <c r="K1" s="13">
+      <c r="O2" s="13">
         <v>25</v>
       </c>
-      <c r="L1" s="13">
+      <c r="P2" s="13">
         <v>26</v>
       </c>
-      <c r="M1" s="13">
+      <c r="Q2" s="13">
         <v>27</v>
       </c>
-      <c r="N1" s="13">
+      <c r="R2" s="13">
         <v>28</v>
       </c>
-      <c r="O1" s="13">
+      <c r="S2" s="13">
         <v>29</v>
       </c>
-      <c r="P1" s="13">
+      <c r="T2" s="13">
         <v>30</v>
       </c>
-      <c r="Q1" s="13">
+      <c r="U2" s="13">
         <v>1</v>
       </c>
-      <c r="R1" s="13">
+      <c r="V2" s="13">
         <v>2</v>
       </c>
-      <c r="S1" s="13">
+      <c r="W2" s="13">
         <v>3</v>
       </c>
-      <c r="T1" s="13">
+      <c r="X2" s="13">
         <v>4</v>
       </c>
-      <c r="U1" s="13">
+      <c r="Y2" s="13">
         <v>5</v>
       </c>
-      <c r="V1" s="13">
+      <c r="Z2" s="13">
         <v>6</v>
       </c>
-      <c r="W1" s="13">
+      <c r="AA2" s="13">
         <v>7</v>
       </c>
-      <c r="X1" s="13">
+      <c r="AB2" s="13">
         <v>8</v>
       </c>
-      <c r="Y1" s="13">
+      <c r="AC2" s="13">
         <v>9</v>
       </c>
-      <c r="Z1" s="13">
+      <c r="AD2" s="13">
         <v>10</v>
       </c>
-      <c r="AA1" s="13">
+      <c r="AE2" s="13">
         <v>11</v>
       </c>
-      <c r="AB1" s="13">
+      <c r="AF2" s="13">
         <v>12</v>
       </c>
-      <c r="AC1" s="13">
+      <c r="AG2" s="13">
         <v>13</v>
       </c>
-      <c r="AD1" s="13">
+      <c r="AH2" s="13">
         <v>14</v>
       </c>
-      <c r="AE1" s="13">
+      <c r="AI2" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="10"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="9"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="9"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="10"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="10"/>
+    </row>
+    <row r="4" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="9"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
       <c r="Y4" s="7"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="10"/>
-      <c r="AI4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ4" s="5"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="7"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="10"/>
+    </row>
+    <row r="5" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="10"/>
-      <c r="AI5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ5" s="1"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="10"/>
+      <c r="AM5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN5" s="5"/>
+    </row>
+    <row r="6" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="10"/>
-      <c r="AI6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ6" s="4"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="10"/>
+      <c r="AM6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN6" s="1"/>
+    </row>
+    <row r="7" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="9"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="7"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="9"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
       <c r="Y7" s="7"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="10"/>
-      <c r="AI7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ7" s="3"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="10"/>
+      <c r="AM7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN7" s="4"/>
+    </row>
+    <row r="8" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="9"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
       <c r="Y8" s="7"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="10"/>
-      <c r="AI8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ8" s="19"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="10"/>
+      <c r="AM8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN8" s="3"/>
+    </row>
+    <row r="9" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="9"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="9"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="10"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="7"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="10"/>
+      <c r="AM9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN9" s="19"/>
+    </row>
+    <row r="10" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="9"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="9"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
       <c r="Y10" s="7"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="10"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="10"/>
+    </row>
+    <row r="11" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="9"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="7"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="9"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
       <c r="Y11" s="7"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="10"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="10"/>
+    </row>
+    <row r="12" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="9"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="9"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
       <c r="Y12" s="7"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="10"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="10"/>
+    </row>
+    <row r="13" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="9"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="7"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="9"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
       <c r="Y13" s="7"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="10"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="10"/>
+    </row>
+    <row r="14" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="9"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="7"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="9"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
       <c r="Y14" s="7"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="10"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="10"/>
+    </row>
+    <row r="15" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="9"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="7"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="9"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
       <c r="Y15" s="7"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="10"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="10"/>
+    </row>
+    <row r="16" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="9"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="7"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="9"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
       <c r="Y16" s="7"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="10"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="10"/>
+    </row>
+    <row r="17" spans="5:35" x14ac:dyDescent="0.25">
+      <c r="E17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="6"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="9"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="14"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="9"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
       <c r="Y17" s="7"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="10"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="10"/>
+    </row>
+    <row r="18" spans="5:35" x14ac:dyDescent="0.25">
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="9"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="10"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="10"/>
+    </row>
+    <row r="19" spans="5:35" x14ac:dyDescent="0.25">
+      <c r="E19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="9"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="11"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
       <c r="R19" s="11"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="10"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="10"/>
+    </row>
+    <row r="20" spans="5:35" x14ac:dyDescent="0.25">
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="9"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
       <c r="R20" s="14"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="7"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
       <c r="Y20" s="7"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="10"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="10"/>
+    </row>
+    <row r="21" spans="5:35" x14ac:dyDescent="0.25">
+      <c r="E21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="9"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
       <c r="R21" s="14"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="10"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="10"/>
+    </row>
+    <row r="22" spans="5:35" x14ac:dyDescent="0.25">
+      <c r="E22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
